--- a/scrapers/scraped-data/CAMPEONATO ABERTO BELGA 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/CAMPEONATO ABERTO BELGA 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
